--- a/va_facility_data_2025-02-20/Lafayette VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lafayette%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lafayette VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lafayette%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ree3c054acc5946638fc5fbdf89f128d9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3bca46b89e544e10bfc6497cecb37ca7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R06210dc40d954fefa392437d4edce3fc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3b5431be0cae44ac80eb23df06c98558"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1535ff15dfcb4d2499d10ab7f7e493ac"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re287c00a7b1344b490f1280b5b564cc6"/>
   </x:sheets>
 </x:workbook>
 </file>
